--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameCreate\TechnologyStudy\Framework\Luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameCreate\Project_Card\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7C26D2-D23B-4DE7-BD87-065C27190F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401181BA-8897-49F0-848C-16DCC3D566BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -77,6 +77,17 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>E_CardType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
   </si>
 </sst>
 </file>
@@ -94,6 +105,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -442,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -552,13 +564,19 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="K6" s="3"/>
     </row>
   </sheetData>

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameCreate\Project_Card\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401181BA-8897-49F0-848C-16DCC3D566BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4373198-949B-4388-98D0-FAEFB7A8082E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="10512" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -87,14 +87,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Defence</t>
+    <t>E_CardFace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongSword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scissors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +149,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -161,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,6 +223,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -563,21 +616,101 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H6" s="3" t="s">
+    <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="H11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="H12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="H13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="H14" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameCreate\Project_Card\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4373198-949B-4388-98D0-FAEFB7A8082E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712D1D09-1E25-417E-9DFB-2B207E275874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="10512" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -80,54 +80,173 @@
   </si>
   <si>
     <t>E_CardType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害牌</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>技能牌</t>
+  </si>
+  <si>
+    <t>Ability</t>
+  </si>
+  <si>
+    <t>能力牌</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>资源牌</t>
+  </si>
+  <si>
+    <t>Curse</t>
   </si>
   <si>
     <t>E_CardFace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LongSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>长剑</t>
+  </si>
+  <si>
+    <t>Knife</t>
+  </si>
+  <si>
+    <t>小刀</t>
   </si>
   <si>
     <t>Mask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knife</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面具</t>
   </si>
   <si>
     <t>Scissors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪刀</t>
+  </si>
+  <si>
+    <t>Eyes</t>
+  </si>
+  <si>
+    <t>眼睛</t>
+  </si>
+  <si>
+    <t>Spear</t>
+  </si>
+  <si>
+    <t>长矛</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>WolfTooth</t>
+  </si>
+  <si>
+    <t>狼牙棒</t>
+  </si>
+  <si>
+    <t>Scroll</t>
+  </si>
+  <si>
+    <t>卷轴</t>
+  </si>
+  <si>
+    <t>Goblet</t>
+  </si>
+  <si>
+    <t>酒杯</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>毒药</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>钢笔</t>
+  </si>
+  <si>
+    <t>Rivet</t>
+  </si>
+  <si>
+    <t>铆钉</t>
+  </si>
+  <si>
+    <t>BeerMug</t>
+  </si>
+  <si>
+    <t>空酒杯</t>
+  </si>
+  <si>
+    <t>Vertigo</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>Joker</t>
+  </si>
+  <si>
+    <t>小丑</t>
+  </si>
+  <si>
+    <t>Intimidate</t>
+  </si>
+  <si>
+    <t>恐吓</t>
+  </si>
+  <si>
+    <t>E_BuffType</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bleed</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penetrate</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trauma</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>创伤</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,11 +255,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -151,18 +319,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei Light"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF444444"/>
-      <name val="Microsoft YaHei Light"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -174,7 +335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,8 +369,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -221,13 +385,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,20 +695,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" customWidth="1"/>
     <col min="4" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="31.44140625" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="29.77734375" customWidth="1"/>
     <col min="10" max="10" width="24.109375" customWidth="1"/>
     <col min="11" max="11" width="28.21875" customWidth="1"/>
@@ -526,198 +716,466 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>25</v>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="H11" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="H12" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="H13" s="5" t="s">
-        <v>28</v>
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="H14" s="5" t="s">
-        <v>29</v>
+      <c r="H14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22">
+        <v>11</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24">
+        <v>13</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25">
+        <v>14</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="H26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26">
+        <v>15</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27">
+        <v>16</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31">
+        <v>1001</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32">
+        <v>1002</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33">
+        <v>1003</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings isFilterShared="1" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+  </woBookProps>
+</woProps>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Luban/Datas/__enums__.xlsx
+++ b/Luban/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameCreate\Project_Card\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712D1D09-1E25-417E-9DFB-2B207E275874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A04F5B9-E131-4B07-AA0E-A8CE263F2BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2832" yWindow="4536" windowWidth="20748" windowHeight="10812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -239,6 +239,30 @@
   </si>
   <si>
     <t>创伤</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkipAction</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳过行动</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中毒</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -695,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -816,14 +840,11 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
+      <c r="H5" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>21</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -835,13 +856,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -852,14 +873,14 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="7" t="s">
-        <v>24</v>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -870,14 +891,14 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>26</v>
+      <c r="H8" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -888,15 +909,27 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="8" t="s">
-        <v>28</v>
+      <c r="H9" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
+      <c r="H10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -1128,6 +1161,28 @@
       </c>
       <c r="K33" s="14" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34">
+        <v>1004</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J35">
+        <v>1005</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1142,6 +1197,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -1155,15 +1217,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -1172,7 +1227,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
